--- a/tests/Templates/tPage1_options.xlsx
+++ b/tests/Templates/tPage1_options.xlsx
@@ -149,7 +149,6 @@
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -157,13 +156,11 @@
       <color indexed="16"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="9"/>
